--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="246">
   <x:si>
     <x:t>mnop1213</x:t>
   </x:si>
@@ -420,6 +420,351 @@
   </x:si>
   <x:si>
     <x:t>c1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경고 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 해결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터소프트웨어공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의실이 너무 더럽다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박병철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽동철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김동식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이승민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김종국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경고 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 해결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터소프트웨어공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의실이 너무 더럽다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박병철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽동철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김동식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이승민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김종국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쪼링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whfl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경찰행정학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경고 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 해결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터소프트웨어공학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의실이 너무 더럽다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박병철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곽동철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김동식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>염승욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이승민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김종국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쪼링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whfl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경찰행정학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -798,7 +1143,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G10"/>
+  <x:dimension ref="A1:G9"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="M6" activeCellId="0" sqref="M6:M6"/>
@@ -811,232 +1156,209 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="A1" t="s" s="0">
-        <x:v>92</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B1" t="s" s="0">
-        <x:v>93</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C1" t="s" s="0">
-        <x:v>94</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D1" t="s" s="0">
-        <x:v>95</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E1" t="s" s="0">
-        <x:v>96</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F1" t="s" s="0">
-        <x:v>97</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G1" t="s" s="0">
-        <x:v>98</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="s" s="0">
-        <x:v>99</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B2" t="s" s="0">
-        <x:v>100</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C2" t="s" s="0">
-        <x:v>100</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D2" t="s" s="0">
-        <x:v>101</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E2" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F2" t="s" s="0">
-        <x:v>103</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G2" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s" s="0">
-        <x:v>104</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B3" t="s" s="0">
-        <x:v>105</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C3" t="s" s="0">
-        <x:v>105</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D3" t="s" s="0">
-        <x:v>106</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E3" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F3" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G3" t="s" s="0">
-        <x:v>109</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s" s="0">
-        <x:v>109</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B4" t="s" s="0">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C4" t="s" s="0">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D4" t="s" s="0">
-        <x:v>111</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E4" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F4" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G4" t="s" s="0">
-        <x:v>112</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s" s="0">
-        <x:v>113</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B5" t="s" s="0">
-        <x:v>114</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C5" t="s" s="0">
-        <x:v>114</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D5" t="s" s="0">
-        <x:v>115</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E5" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F5" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G5" t="s" s="0">
-        <x:v>116</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s" s="0">
-        <x:v>116</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B6" t="s" s="0">
-        <x:v>117</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C6" t="s" s="0">
-        <x:v>117</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D6" t="s" s="0">
-        <x:v>118</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E6" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F6" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G6" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="s" s="0">
-        <x:v>119</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B7" t="s" s="0">
-        <x:v>120</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C7" t="s" s="0">
-        <x:v>121</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D7" t="s" s="0">
-        <x:v>118</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E7" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F7" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G7" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s" s="0">
-        <x:v>122</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B8" t="s" s="0">
-        <x:v>123</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C8" t="s" s="0">
-        <x:v>124</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D8" t="s" s="0">
-        <x:v>118</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E8" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F8" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G8" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s" s="0">
-        <x:v>125</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B9" t="s" s="0">
-        <x:v>126</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C9" t="s" s="0">
-        <x:v>127</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D9" t="s" s="0">
-        <x:v>118</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E9" t="s" s="0">
-        <x:v>107</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F9" t="s" s="0">
-        <x:v>108</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G9" t="s" s="0">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="A10" t="s" s="0">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B10" t="s" s="0">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C10" t="s" s="0">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D10" t="s" s="0">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E10" t="s" s="0">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F10" t="s" s="0">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="G10" t="s" s="0">
-        <x:v>102</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="112">
   <si>
     <t>mnop1213</t>
   </si>
@@ -311,6 +311,60 @@
   </si>
   <si>
     <t>관리자</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2025.05.31</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>2025.06.05</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>2025.06.06</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2025.06.30</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2026.05.15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2025.04.08</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2025.05.02</t>
+  </si>
+  <si>
+    <t>12:00</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1284,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:F34"/>
@@ -1383,6 +1437,126 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1393,7 +1567,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
@@ -1465,6 +1639,26 @@
         <v>0.875</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1475,7 +1669,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
@@ -1545,6 +1739,26 @@
       </c>
       <c r="F3" s="1">
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1853,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -1689,6 +1903,46 @@
       </c>
       <c r="F2" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="113">
   <si>
     <t>mnop1213</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>12:00</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1570,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
@@ -1657,6 +1660,26 @@
       </c>
       <c r="F4" t="s" s="0">
         <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="112">
   <si>
     <t>mnop1213</t>
   </si>
@@ -737,7 +737,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -880,13 +880,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>77</v>
@@ -901,18 +901,18 @@
         <v>61</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>77</v>
@@ -927,99 +927,99 @@
         <v>61</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>66</v>
@@ -1028,7 +1028,7 @@
         <v>67</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>89</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>66</v>
@@ -1054,24 +1054,24 @@
         <v>67</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>66</v>
@@ -1080,27 +1080,27 @@
         <v>67</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>67</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>66</v>
@@ -1132,87 +1132,9 @@
         <v>67</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s" s="0">
         <v>88</v>
       </c>
     </row>

--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="113">
   <si>
     <t>mnop1213</t>
   </si>
@@ -740,7 +740,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -1190,32 +1190,6 @@
         <v>61</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s" s="0">
         <v>88</v>
       </c>
     </row>

--- a/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/LectureRoomReservation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="114">
   <si>
     <t>mnop1213</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1853,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -1939,6 +1942,26 @@
         <v>101</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>100</v>
       </c>
     </row>
